--- a/Data_Sheet.xlsx
+++ b/Data_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\svn\SeleniumFramework\PropertiesFramework\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MylockedfolderG\GIT_Repo\GIT_NEW_Project\SheetProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Data_Line</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>http://localhost:90/ejagruti-ui/</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +402,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
